--- a/Output/Output.xlsx
+++ b/Output/Output.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="22">
   <si>
     <t>HospitalNames</t>
   </si>

--- a/Output/Output.xlsx
+++ b/Output/Output.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="22">
   <si>
     <t>HospitalNames</t>
   </si>

--- a/Output/Output.xlsx
+++ b/Output/Output.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="22">
   <si>
     <t>HospitalNames</t>
   </si>
